--- a/BilSportTesting.xlsx
+++ b/BilSportTesting.xlsx
@@ -4,15 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830" activeTab="3"/>
+    <workbookView windowWidth="20490" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Requirement" sheetId="1" r:id="rId1"/>
-    <sheet name="Reservation" sheetId="6" r:id="rId2"/>
-    <sheet name="Enrollment" sheetId="2" r:id="rId3"/>
-    <sheet name="Management" sheetId="5" r:id="rId4"/>
-    <sheet name="Login" sheetId="7" r:id="rId5"/>
-    <sheet name="Inspection Test" sheetId="8" r:id="rId6"/>
+    <sheet name="Enrollment" sheetId="2" r:id="rId2"/>
+    <sheet name="Login" sheetId="7" r:id="rId3"/>
+    <sheet name="Inspection Test" sheetId="8" r:id="rId4"/>
+    <sheet name="Reservation" sheetId="6" r:id="rId5"/>
+    <sheet name="Management" sheetId="5" r:id="rId6"/>
     <sheet name="Appointment" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="196">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -47,7 +47,7 @@
     <t>BILSPORT-SRS-001</t>
   </si>
   <si>
-    <t>BilSport web application shall allow the user to register in the system</t>
+    <t>BilSport web application shall allow the user to register in the system.</t>
   </si>
   <si>
     <t>Demonstration</t>
@@ -199,17 +199,17 @@
     <t>BILSPORT-SRS-012</t>
   </si>
   <si>
-    <t xml:space="preserve">BilSport web application shall allow admin to manage announcement in “Ready” state by using the following parameters:
+    <t>BilSport web application shall allow admin to manage announcement in “Ready” state by using the following parameters:
 ·        Announcement Title as String
 ·        Announcement Content as String
 ·        Announcement Image as Image
-</t>
+·        Announcement Start and End Date as Date</t>
   </si>
   <si>
     <t>BILSPORT-SRS-013</t>
   </si>
   <si>
-    <t>BilSport web application shall allow admin to manage tournament</t>
+    <t>BilSport web application shall allow admin to manage tournament.</t>
   </si>
   <si>
     <t>Managing tournament</t>
@@ -354,59 +354,22 @@
     <t>Test Case ID</t>
   </si>
   <si>
-    <t>BILSPORT-RES-001</t>
+    <t>TST-ENR-001</t>
   </si>
   <si>
     <t>Test Case Definition</t>
   </si>
   <si>
-    <t>This test case is formed to check making reservation.</t>
+    <t>This test case is formed to check enrolling to the system</t>
   </si>
   <si>
     <t>Verified Requirements</t>
   </si>
   <si>
+    <t>BilSport web application shall allow the user to register in the system</t>
+  </si>
+  <si>
     <t>Prerequisite Conditions</t>
-  </si>
-  <si>
-    <t>reservation button is clicked.</t>
-  </si>
-  <si>
-    <t>Assumptions and Constraints</t>
-  </si>
-  <si>
-    <t>Test Steps</t>
-  </si>
-  <si>
-    <t># Step Number</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Expected Result</t>
-  </si>
-  <si>
-    <t>Reservation
-button is clicked.</t>
-  </si>
-  <si>
-    <t>Reservation Form 
-is opened.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name ,Surname,ID,Type are entered and
- make reservation button is clicked. </t>
-  </si>
-  <si>
-    <t>Reservation entered is displayed
- on the screen.</t>
-  </si>
-  <si>
-    <t>TST-ENR-001</t>
-  </si>
-  <si>
-    <t>This test case is formed to check enrolling to the system</t>
   </si>
   <si>
     <t>Web Application is running.</t>
@@ -417,6 +380,18 @@
   <si>
     <t xml:space="preserve">Name, Surname , Email,
  ID, Password, PasswordControl  </t>
+  </si>
+  <si>
+    <t>Test Steps</t>
+  </si>
+  <si>
+    <t># Step Number</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
   </si>
   <si>
     <t>Clicking the register button</t>
@@ -464,128 +439,6 @@
     <t>A message is diplayed on the screen as you enrolled the tournament.</t>
   </si>
   <si>
-    <t>BILSPORT-MAN-001</t>
-  </si>
-  <si>
-    <t>This test case is formed to check making announcement</t>
-  </si>
-  <si>
-    <t>Announcement Form 
-button is clicked.</t>
-  </si>
-  <si>
-    <t>Announcement Form 
-is opened.</t>
-  </si>
-  <si>
-    <t>Announcement title, 
-content and image are entered.</t>
-  </si>
-  <si>
-    <t>Announcement title, 
-content and image are avaliable to entered.</t>
-  </si>
-  <si>
-    <t>Announce button
- is clicked.</t>
-  </si>
-  <si>
-    <t>Announcement entered is displayed
- on the announcement page.</t>
-  </si>
-  <si>
-    <t>Announcement Title, Content, Date are updated.</t>
-  </si>
-  <si>
-    <t>Updated announcement is displayed on the announcement page.</t>
-  </si>
-  <si>
-    <t>Delete button is clicked</t>
-  </si>
-  <si>
-    <t>Announcement deleted on the page.</t>
-  </si>
-  <si>
-    <t>BILSPORT-MAN-002</t>
-  </si>
-  <si>
-    <t>This test case is formed to check managing tournament</t>
-  </si>
-  <si>
-    <t>Tournament Form 
-button is clicked.</t>
-  </si>
-  <si>
-    <t>Tournament Form 
-is opened.</t>
-  </si>
-  <si>
-    <t>Tournament Title, Content , Date and Hours , Capacity
-is entered.</t>
-  </si>
-  <si>
-    <t>Tournament is displayed on
- the tournament page.</t>
-  </si>
-  <si>
-    <t>Tournament Title, Content, Date, Hours, Capacity are updated.</t>
-  </si>
-  <si>
-    <t>Updated tournament is displayed on the tournament page.</t>
-  </si>
-  <si>
-    <t>Tournament deleted on the page.</t>
-  </si>
-  <si>
-    <t>BILSPORT-MAN-003</t>
-  </si>
-  <si>
-    <t>This test case is formed to check managing reservation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BilSport web application shall allow
- admin to manage reservation </t>
-  </si>
-  <si>
-    <t>Reservation Form 
-button is clicked.</t>
-  </si>
-  <si>
-    <t>Reservation is updated.</t>
-  </si>
-  <si>
-    <t>Updated reservation is displayed.</t>
-  </si>
-  <si>
-    <t>Reservation deleted on the page.</t>
-  </si>
-  <si>
-    <t>BILSPORT-MAN-004</t>
-  </si>
-  <si>
-    <t>This test case is formed to check managing appointment</t>
-  </si>
-  <si>
-    <t>Appointment Form 
-button is clicked.</t>
-  </si>
-  <si>
-    <t>Appointment Form 
-is opened.</t>
-  </si>
-  <si>
-    <t>Appointment is updated.</t>
-  </si>
-  <si>
-    <t>Updated Appointment is displayed.</t>
-  </si>
-  <si>
-    <t>Appointment button is clicked.</t>
-  </si>
-  <si>
-    <t>Appointment deleted on the page.</t>
-  </si>
-  <si>
     <t>TST-LOG-001</t>
   </si>
   <si>
@@ -620,6 +473,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="162"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">BilSport web application shall be able to register in “Ready” state by using the following parameters:
 </t>
     </r>
@@ -675,6 +535,159 @@
  If not, a warnning message is displayed and registration is not done.</t>
   </si>
   <si>
+    <t>BILSPORT-RES-001</t>
+  </si>
+  <si>
+    <t>This test case is formed to check making reservation.</t>
+  </si>
+  <si>
+    <t>reservation button is clicked.</t>
+  </si>
+  <si>
+    <t>Assumptions and Constraints</t>
+  </si>
+  <si>
+    <t>Reservation
+button is clicked.</t>
+  </si>
+  <si>
+    <t>Reservation Form 
+is opened.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name ,Surname,ID,Type are entered and
+ make reservation button is clicked. </t>
+  </si>
+  <si>
+    <t>Reservation entered is displayed
+ on the screen.</t>
+  </si>
+  <si>
+    <t>BILSPORT-MAN-001</t>
+  </si>
+  <si>
+    <t>This test case is formed to check making announcement</t>
+  </si>
+  <si>
+    <t>Announcement Form 
+button is clicked.</t>
+  </si>
+  <si>
+    <t>Announcement Form 
+is opened.</t>
+  </si>
+  <si>
+    <t>Announcement title, 
+content and image are entered.</t>
+  </si>
+  <si>
+    <t>Announcement title, 
+content and image are avaliable to entered.</t>
+  </si>
+  <si>
+    <t>Announce button
+ is clicked.</t>
+  </si>
+  <si>
+    <t>Announcement entered is displayed
+ on the announcement page.</t>
+  </si>
+  <si>
+    <t>Announcement Title, Content,Start and End Date are updated.</t>
+  </si>
+  <si>
+    <t>Updated announcement is displayed on the announcement page.</t>
+  </si>
+  <si>
+    <t>Delete button is clicked</t>
+  </si>
+  <si>
+    <t>Announcement deleted on the page.</t>
+  </si>
+  <si>
+    <t>BILSPORT-MAN-002</t>
+  </si>
+  <si>
+    <t>This test case is formed to check managing tournament</t>
+  </si>
+  <si>
+    <t>BilSport web application shall allow admin to manage tournament</t>
+  </si>
+  <si>
+    <t>Tournament Form 
+button is clicked.</t>
+  </si>
+  <si>
+    <t>Tournament Form 
+is opened.</t>
+  </si>
+  <si>
+    <t>Tournament Title, Content , Date and Hours , Capacity
+is entered.</t>
+  </si>
+  <si>
+    <t>Tournament is displayed on
+ the tournament page.</t>
+  </si>
+  <si>
+    <t>Tournament Title, Content, Date, Hours, Capacity are updated.</t>
+  </si>
+  <si>
+    <t>Updated tournament is displayed on the tournament page.</t>
+  </si>
+  <si>
+    <t>Tournament deleted on the page.</t>
+  </si>
+  <si>
+    <t>BILSPORT-MAN-003</t>
+  </si>
+  <si>
+    <t>This test case is formed to check managing reservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BilSport web application shall allow
+ admin to manage reservation </t>
+  </si>
+  <si>
+    <t>Reservation Form 
+button is clicked.</t>
+  </si>
+  <si>
+    <t>Reservation is updated.</t>
+  </si>
+  <si>
+    <t>Updated reservation is displayed.</t>
+  </si>
+  <si>
+    <t>Reservation deleted on the page.</t>
+  </si>
+  <si>
+    <t>BILSPORT-MAN-004</t>
+  </si>
+  <si>
+    <t>This test case is formed to check managing appointment</t>
+  </si>
+  <si>
+    <t>Appointment Form 
+button is clicked.</t>
+  </si>
+  <si>
+    <t>Appointment Form 
+is opened.</t>
+  </si>
+  <si>
+    <t>Appointment is updated.</t>
+  </si>
+  <si>
+    <t>Updated Appointment is displayed.</t>
+  </si>
+  <si>
+    <t>Appointment button is clicked.</t>
+  </si>
+  <si>
+    <t>Appointment deleted on the page.</t>
+  </si>
+  <si>
     <t>BILSPORT-APP-001</t>
   </si>
   <si>
@@ -714,9 +727,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -771,22 +784,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -800,9 +805,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -816,9 +820,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -832,8 +836,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -857,14 +877,21 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -878,30 +905,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -923,7 +936,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,7 +972,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,7 +996,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,79 +1086,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1049,61 +1110,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1117,36 +1130,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1163,6 +1150,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1184,9 +1186,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1214,12 +1218,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1237,134 +1250,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1388,19 +1401,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1411,15 +1426,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1755,8 +1761,8 @@
   <sheetPr/>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1772,13 +1778,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="30" spans="1:7">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
@@ -1810,10 +1816,10 @@
       <c r="E2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="23" t="s">
+      <c r="G2" s="20" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1833,10 +1839,10 @@
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="24"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" ht="30" spans="1:7">
       <c r="A4" s="4" t="s">
@@ -1854,10 +1860,10 @@
       <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="24"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" ht="90" spans="1:7">
       <c r="A5" s="4" t="s">
@@ -1875,10 +1881,10 @@
       <c r="E5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="18"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" ht="30" spans="1:7">
       <c r="A6" s="4" t="s">
@@ -1896,10 +1902,10 @@
       <c r="E6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="18"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" ht="150" spans="1:7">
       <c r="A7" s="4" t="s">
@@ -1917,10 +1923,10 @@
       <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="18"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" ht="30" spans="1:7">
       <c r="A8" s="4" t="s">
@@ -1938,10 +1944,10 @@
       <c r="E8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="18"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" ht="180" spans="1:7">
       <c r="A9" s="4" t="s">
@@ -1959,10 +1965,10 @@
       <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="18"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" ht="30" spans="1:7">
       <c r="A10" s="4" t="s">
@@ -1977,13 +1983,13 @@
       <c r="D10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="18"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" ht="120" spans="1:7">
       <c r="A11" s="4" t="s">
@@ -2001,10 +2007,10 @@
       <c r="E11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="18"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" ht="30" spans="1:7">
       <c r="A12" s="4" t="s">
@@ -2016,18 +2022,18 @@
       <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="18" t="s">
+      <c r="E12" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" ht="135" spans="1:7">
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" ht="165" spans="1:7">
       <c r="A13" s="4" t="s">
         <v>49</v>
       </c>
@@ -2043,10 +2049,10 @@
       <c r="E13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="18"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" ht="30" spans="1:7">
       <c r="A14" s="4" t="s">
@@ -2058,16 +2064,16 @@
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G14" s="18"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" ht="150" spans="1:7">
       <c r="A15" s="4" t="s">
@@ -2085,52 +2091,52 @@
       <c r="E15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G15" s="18"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" ht="30" spans="1:7">
       <c r="A16" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="8" t="s">
         <v>57</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="18" t="s">
+      <c r="F16" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="18"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" ht="30" spans="1:7">
       <c r="A17" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="18"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" ht="30" spans="1:7">
       <c r="A18" s="4" t="s">
@@ -2148,10 +2154,10 @@
       <c r="E18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="18"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" ht="30" spans="1:7">
       <c r="A19" s="4" t="s">
@@ -2169,10 +2175,10 @@
       <c r="E19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G19" s="18"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" ht="45" spans="1:7">
       <c r="A20" s="4" t="s">
@@ -2187,82 +2193,82 @@
       <c r="D20" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="18" t="s">
+      <c r="F20" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="18"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" ht="30" spans="1:7">
       <c r="A21" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="8" t="s">
         <v>72</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F21" s="18" t="s">
+      <c r="F21" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G21" s="18"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" ht="30" spans="1:7">
       <c r="A22" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="8" t="s">
         <v>77</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G22" s="18"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" ht="30" spans="1:7">
       <c r="A23" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="8" t="s">
         <v>80</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="18" t="s">
+      <c r="E23" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F23" s="18" t="s">
+      <c r="F23" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G23" s="18"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" ht="30" spans="1:6">
       <c r="A24" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="8" t="s">
         <v>83</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -2274,7 +2280,7 @@
       <c r="E24" t="s">
         <v>85</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="9" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2282,7 +2288,7 @@
       <c r="A25" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -2294,7 +2300,7 @@
       <c r="E25" t="s">
         <v>89</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="9" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2302,7 +2308,7 @@
       <c r="A26" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="8" t="s">
         <v>91</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -2314,7 +2320,7 @@
       <c r="E26" t="s">
         <v>93</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="9" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2338,6 +2344,527 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="26.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="27.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="36.1428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" ht="30" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" ht="45" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" ht="105" spans="1:3">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" ht="30" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" ht="30" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" ht="30" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" ht="30" spans="1:3">
+      <c r="A22" s="1">
+        <v>1</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" ht="75" spans="1:3">
+      <c r="A23" s="1">
+        <v>2</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="20.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="17.1428571428571" customWidth="1"/>
+    <col min="3" max="3" width="19.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" ht="60" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="60" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" ht="60" spans="1:3">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" ht="30" spans="1:3">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="23" style="11" customWidth="1"/>
+    <col min="2" max="2" width="20.4285714285714" style="11" customWidth="1"/>
+    <col min="3" max="3" width="24.2857142857143" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="9.14285714285714" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="30" spans="1:3">
+      <c r="A1" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" ht="20" customHeight="1" spans="1:3">
+      <c r="A3" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" ht="138" customHeight="1" spans="1:3">
+      <c r="A4" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5" ht="75" spans="1:3">
+      <c r="A5" s="12"/>
+      <c r="B5" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" ht="45" spans="1:3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" ht="45" spans="1:3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" ht="90" customHeight="1" spans="1:3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" ht="84" customHeight="1" spans="1:3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" ht="101" customHeight="1" spans="1:3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" ht="72" customHeight="1" spans="1:3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" ht="82" customHeight="1" spans="1:3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" ht="75" spans="1:3">
+      <c r="A16" s="12">
+        <v>1</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C12"/>
@@ -2357,7 +2884,7 @@
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C1" s="3"/>
@@ -2367,7 +2894,7 @@
         <v>97</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -2376,7 +2903,7 @@
         <v>99</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -2398,36 +2925,36 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" ht="30" spans="1:3">
@@ -2435,10 +2962,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" ht="60" spans="1:3">
@@ -2446,10 +2973,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>111</v>
+        <v>148</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="2:2">
@@ -2461,242 +2988,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="26.1428571428571" customWidth="1"/>
-    <col min="2" max="2" width="27.8571428571429" customWidth="1"/>
-    <col min="3" max="3" width="36.1428571428571" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" ht="45" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" ht="45" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" ht="105" spans="1:3">
-      <c r="A10" s="1">
-        <v>2</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" ht="45" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" ht="30" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" ht="30" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" ht="30" spans="1:3">
-      <c r="A22" s="1">
-        <v>1</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" ht="75" spans="1:3">
-      <c r="A23" s="1">
-        <v>2</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -2710,7 +3008,7 @@
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C1" s="3"/>
@@ -2720,7 +3018,7 @@
         <v>97</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -2729,11 +3027,11 @@
         <v>99</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" ht="75" spans="1:3">
+    <row r="4" ht="60" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>101</v>
       </c>
@@ -2751,20 +3049,20 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" ht="30" spans="1:3">
@@ -2772,10 +3070,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" ht="45" spans="1:3">
@@ -2783,10 +3081,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" ht="60" spans="1:3">
@@ -2794,10 +3092,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" ht="60" spans="1:3">
@@ -2805,10 +3103,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" ht="30" spans="1:3">
@@ -2816,17 +3114,17 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C14" s="3"/>
@@ -2836,7 +3134,7 @@
         <v>97</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="C15" s="3"/>
     </row>
@@ -2845,7 +3143,7 @@
         <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="C16" s="3"/>
     </row>
@@ -2857,7 +3155,7 @@
         <v>51</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>52</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2867,27 +3165,27 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" ht="39" customHeight="1" spans="1:3">
@@ -2895,10 +3193,10 @@
         <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" ht="60" spans="1:3">
@@ -2906,10 +3204,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" ht="45" spans="1:3">
@@ -2917,10 +3215,10 @@
         <v>3</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" ht="30" spans="1:3">
@@ -2928,17 +3226,17 @@
         <v>4</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C28" s="3"/>
@@ -2948,7 +3246,7 @@
         <v>97</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="C29" s="3"/>
     </row>
@@ -2957,7 +3255,7 @@
         <v>99</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="C30" s="3"/>
     </row>
@@ -2968,8 +3266,8 @@
       <c r="B31" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="19" t="s">
-        <v>153</v>
+      <c r="C31" s="10" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -2979,27 +3277,27 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" ht="30" spans="1:3">
@@ -3007,10 +3305,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" ht="30" spans="1:3">
@@ -3018,10 +3316,10 @@
         <v>2</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" ht="30" spans="1:3">
@@ -3029,10 +3327,10 @@
         <v>3</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="2:3">
@@ -3043,7 +3341,7 @@
       <c r="A45" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C45" s="3"/>
@@ -3053,7 +3351,7 @@
         <v>97</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="C46" s="3"/>
     </row>
@@ -3062,7 +3360,7 @@
         <v>99</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="C47" s="3"/>
     </row>
@@ -3073,7 +3371,7 @@
       <c r="B48" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3084,27 +3382,27 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" ht="30" spans="1:3">
@@ -3112,10 +3410,10 @@
         <v>1</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54" ht="30" spans="1:3">
@@ -3123,10 +3421,10 @@
         <v>2</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
     </row>
     <row r="55" ht="30" spans="1:3">
@@ -3134,307 +3432,15 @@
         <v>3</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>165</v>
+        <v>186</v>
       </c>
     </row>
     <row r="56" spans="2:3">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="20.2857142857143" customWidth="1"/>
-    <col min="2" max="2" width="17.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="19.4285714285714" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="30" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" ht="60" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" ht="60" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" ht="60" spans="1:3">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" ht="30" spans="1:3">
-      <c r="A10" s="1">
-        <v>2</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="1" width="23" style="9" customWidth="1"/>
-    <col min="2" max="2" width="20.4285714285714" style="9" customWidth="1"/>
-    <col min="3" max="3" width="24.2857142857143" style="9" customWidth="1"/>
-    <col min="4" max="16384" width="9.14285714285714" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="30" spans="1:3">
-      <c r="A1" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="11"/>
-    </row>
-    <row r="3" ht="20" customHeight="1" spans="1:3">
-      <c r="A3" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C3" s="11"/>
-    </row>
-    <row r="4" ht="138" customHeight="1" spans="1:3">
-      <c r="A4" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" ht="75" spans="1:3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" ht="45" spans="1:3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" ht="45" spans="1:3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" ht="90" customHeight="1" spans="1:3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" ht="84" customHeight="1" spans="1:3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" ht="101" customHeight="1" spans="1:3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" ht="72" customHeight="1" spans="1:3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" ht="82" customHeight="1" spans="1:3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C13" s="11"/>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" ht="75" spans="1:3">
-      <c r="A16" s="13">
-        <v>1</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>184</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3458,7 +3464,7 @@
     <col min="3" max="3" width="25.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" spans="1:3">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>96</v>
       </c>
@@ -3472,7 +3478,7 @@
         <v>97</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -3481,11 +3487,11 @@
         <v>99</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" ht="60" spans="1:3">
+    <row r="4" ht="45" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>101</v>
       </c>
@@ -3503,38 +3509,38 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" ht="75" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -3542,10 +3548,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3553,10 +3559,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" ht="60" spans="1:3">
@@ -3564,10 +3570,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/BilSportTesting.xlsx
+++ b/BilSportTesting.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="197">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -122,6 +122,9 @@
     <t>Enroll to Tournament</t>
   </si>
   <si>
+    <t>2nd increment</t>
+  </si>
+  <si>
     <t>BILSPORT-SRS-006</t>
   </si>
   <si>
@@ -130,9 +133,6 @@
 ·        Surname as String
 ·        ID as String
 ·        Tournament Name  as String</t>
-  </si>
-  <si>
-    <t>2nd increment</t>
   </si>
   <si>
     <t>BILSPORT-SRS-007</t>
@@ -578,14 +578,14 @@
   </si>
   <si>
     <t>Announcement title, 
-content and image are entered.</t>
-  </si>
-  <si>
-    <t>Announcement title, 
-content and image are avaliable to entered.</t>
-  </si>
-  <si>
-    <t>Announce button
+content and image, start and end date are entered.</t>
+  </si>
+  <si>
+    <t>Fields are avaliable to 
+be filled in.</t>
+  </si>
+  <si>
+    <t>Submit button
  is clicked.</t>
   </si>
   <si>
@@ -599,7 +599,7 @@
     <t>Updated announcement is displayed on the announcement page.</t>
   </si>
   <si>
-    <t>Delete button is clicked</t>
+    <t>Delete button is clicked.</t>
   </si>
   <si>
     <t>Announcement deleted on the page.</t>
@@ -634,6 +634,9 @@
   </si>
   <si>
     <t>Updated tournament is displayed on the tournament page.</t>
+  </si>
+  <si>
+    <t>Delete button is clicked</t>
   </si>
   <si>
     <t>Tournament deleted on the page.</t>
@@ -726,9 +729,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
@@ -790,6 +793,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -799,21 +810,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -830,70 +826,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -920,6 +855,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -936,13 +939,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,25 +957,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,7 +969,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -996,55 +987,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1062,7 +1023,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1074,13 +1089,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1092,31 +1101,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1130,10 +1133,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1150,21 +1203,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1186,194 +1224,159 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1761,8 +1764,8 @@
   <sheetPr/>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -1903,16 +1906,16 @@
         <v>28</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G6" s="9"/>
     </row>
     <row r="7" ht="150" spans="1:7">
       <c r="A7" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>16</v>
@@ -1924,7 +1927,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G7" s="9"/>
     </row>
@@ -1945,7 +1948,7 @@
         <v>35</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G8" s="9"/>
     </row>
@@ -1966,7 +1969,7 @@
         <v>18</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G9" s="9"/>
     </row>
@@ -1987,7 +1990,7 @@
         <v>41</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G10" s="9"/>
     </row>
@@ -2008,7 +2011,7 @@
         <v>44</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G11" s="9"/>
     </row>
@@ -2029,7 +2032,7 @@
         <v>48</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G12" s="9"/>
     </row>
@@ -2050,7 +2053,7 @@
         <v>18</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G13" s="9"/>
     </row>
@@ -2071,7 +2074,7 @@
         <v>53</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G14" s="9"/>
     </row>
@@ -2092,7 +2095,7 @@
         <v>18</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G15" s="9"/>
     </row>
@@ -2113,7 +2116,7 @@
         <v>58</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G16" s="9"/>
     </row>
@@ -2134,7 +2137,7 @@
         <v>61</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G17" s="9"/>
     </row>
@@ -2155,7 +2158,7 @@
         <v>64</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G18" s="9"/>
     </row>
@@ -2176,7 +2179,7 @@
         <v>11</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G19" s="9"/>
     </row>
@@ -2197,7 +2200,7 @@
         <v>70</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G20" s="9"/>
     </row>
@@ -2780,7 +2783,7 @@
     <row r="8" ht="90" customHeight="1" spans="1:3">
       <c r="A8" s="12"/>
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>134</v>
@@ -2994,7 +2997,7 @@
   <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -3076,7 +3079,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="9" ht="45" spans="1:3">
+    <row r="9" ht="60" spans="1:3">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -3226,10 +3229,10 @@
         <v>4</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3246,7 +3249,7 @@
         <v>97</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C29" s="3"/>
     </row>
@@ -3255,7 +3258,7 @@
         <v>99</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C30" s="3"/>
     </row>
@@ -3267,7 +3270,7 @@
         <v>56</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3305,7 +3308,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>147</v>
@@ -3316,10 +3319,10 @@
         <v>2</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="38" ht="30" spans="1:3">
@@ -3327,10 +3330,10 @@
         <v>3</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="39" spans="2:3">
@@ -3351,7 +3354,7 @@
         <v>97</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C46" s="3"/>
     </row>
@@ -3360,7 +3363,7 @@
         <v>99</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C47" s="3"/>
     </row>
@@ -3410,10 +3413,10 @@
         <v>1</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="54" ht="30" spans="1:3">
@@ -3421,10 +3424,10 @@
         <v>2</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" ht="30" spans="1:3">
@@ -3432,10 +3435,10 @@
         <v>3</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="56" spans="2:3">
@@ -3478,7 +3481,7 @@
         <v>97</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -3487,7 +3490,7 @@
         <v>99</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -3512,7 +3515,7 @@
         <v>103</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -3521,7 +3524,7 @@
         <v>105</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -3548,10 +3551,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -3559,10 +3562,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" ht="60" spans="1:3">
@@ -3570,10 +3573,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>

--- a/BilSportTesting.xlsx
+++ b/BilSportTesting.xlsx
@@ -47,7 +47,7 @@
     <t>BILSPORT-SRS-001</t>
   </si>
   <si>
-    <t>BilSport web application shall allow the user to register in the system.</t>
+    <t>BilSport web application shall allow the user to register in the system</t>
   </si>
   <si>
     <t>Demonstration</t>
@@ -138,7 +138,7 @@
     <t>BILSPORT-SRS-007</t>
   </si>
   <si>
-    <t>BilSport web application shall allow the user to make an appointment</t>
+    <t>BilSport web application shall allow the user to make an appointment.</t>
   </si>
   <si>
     <t>Appointment</t>
@@ -364,9 +364,6 @@
   </si>
   <si>
     <t>Verified Requirements</t>
-  </si>
-  <si>
-    <t>BilSport web application shall allow the user to register in the system</t>
   </si>
   <si>
     <t>Prerequisite Conditions</t>
@@ -697,6 +694,9 @@
     <t>This test case is formed to check making appointment</t>
   </si>
   <si>
+    <t>BilSport web application shall allow the user to make an appointment</t>
+  </si>
+  <si>
     <t>Appintment button is clicked.</t>
   </si>
   <si>
@@ -730,9 +730,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -779,67 +779,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -848,8 +787,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -873,7 +813,58 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -887,9 +878,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -897,20 +911,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -939,7 +939,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,49 +1101,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1005,121 +1113,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1130,6 +1130,36 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1148,26 +1178,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1192,36 +1222,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1235,7 +1235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1253,130 +1253,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1764,8 +1764,8 @@
   <sheetPr/>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2397,43 +2397,43 @@
         <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>102</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>104</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" ht="45" spans="1:3">
       <c r="A6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -2441,10 +2441,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="10" ht="105" spans="1:3">
@@ -2452,10 +2452,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2482,7 +2482,7 @@
         <v>97</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C15" s="3"/>
     </row>
@@ -2491,7 +2491,7 @@
         <v>99</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C16" s="3"/>
     </row>
@@ -2508,38 +2508,38 @@
     </row>
     <row r="18" ht="30" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19" ht="30" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="C21" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="22" ht="30" spans="1:3">
@@ -2547,10 +2547,10 @@
         <v>1</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="23" ht="75" spans="1:3">
@@ -2558,10 +2558,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2605,7 +2605,7 @@
         <v>97</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -2614,7 +2614,7 @@
         <v>99</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -2631,38 +2631,38 @@
     </row>
     <row r="5" ht="60" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="9" ht="60" spans="1:3">
@@ -2670,10 +2670,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="10" ht="30" spans="1:3">
@@ -2681,10 +2681,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -2729,7 +2729,7 @@
         <v>97</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" s="5"/>
     </row>
@@ -2738,7 +2738,7 @@
         <v>99</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" s="5"/>
     </row>
@@ -2750,7 +2750,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" ht="75" spans="1:3">
@@ -2786,7 +2786,7 @@
         <v>30</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" ht="84" customHeight="1" spans="1:3">
@@ -2795,7 +2795,7 @@
         <v>36</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" ht="101" customHeight="1" spans="1:3">
@@ -2804,7 +2804,7 @@
         <v>42</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" ht="72" customHeight="1" spans="1:3">
@@ -2813,7 +2813,7 @@
         <v>49</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" ht="82" customHeight="1" spans="1:3">
@@ -2822,32 +2822,32 @@
         <v>54</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C13" s="5"/>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="16" ht="75" spans="1:3">
@@ -2855,10 +2855,10 @@
         <v>1</v>
       </c>
       <c r="B16" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>140</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2897,7 +2897,7 @@
         <v>97</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -2906,7 +2906,7 @@
         <v>99</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -2928,36 +2928,36 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="10" ht="30" spans="1:3">
@@ -2965,10 +2965,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="11" ht="60" spans="1:3">
@@ -2976,10 +2976,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>148</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="12" spans="2:2">
@@ -3021,7 +3021,7 @@
         <v>97</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -3030,7 +3030,7 @@
         <v>99</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -3052,20 +3052,20 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="8" ht="30" spans="1:3">
@@ -3073,10 +3073,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="9" ht="60" spans="1:3">
@@ -3084,10 +3084,10 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="10" ht="60" spans="1:3">
@@ -3095,10 +3095,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>156</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="11" ht="60" spans="1:3">
@@ -3106,10 +3106,10 @@
         <v>4</v>
       </c>
       <c r="B11" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>158</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="12" ht="30" spans="1:3">
@@ -3117,10 +3117,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -3137,7 +3137,7 @@
         <v>97</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C15" s="3"/>
     </row>
@@ -3146,7 +3146,7 @@
         <v>99</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C16" s="3"/>
     </row>
@@ -3158,7 +3158,7 @@
         <v>51</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -3168,27 +3168,27 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="C21" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="22" ht="39" customHeight="1" spans="1:3">
@@ -3196,10 +3196,10 @@
         <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="23" ht="60" spans="1:3">
@@ -3207,10 +3207,10 @@
         <v>2</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="24" ht="45" spans="1:3">
@@ -3218,10 +3218,10 @@
         <v>3</v>
       </c>
       <c r="B24" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="25" ht="30" spans="1:3">
@@ -3229,10 +3229,10 @@
         <v>4</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3249,7 +3249,7 @@
         <v>97</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C29" s="3"/>
     </row>
@@ -3258,7 +3258,7 @@
         <v>99</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C30" s="3"/>
     </row>
@@ -3270,7 +3270,7 @@
         <v>56</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -3280,27 +3280,27 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="36" ht="30" spans="1:3">
@@ -3308,10 +3308,10 @@
         <v>1</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" ht="30" spans="1:3">
@@ -3319,10 +3319,10 @@
         <v>2</v>
       </c>
       <c r="B37" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C37" s="8" t="s">
         <v>177</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="38" ht="30" spans="1:3">
@@ -3330,10 +3330,10 @@
         <v>3</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="2:3">
@@ -3354,7 +3354,7 @@
         <v>97</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C46" s="3"/>
     </row>
@@ -3363,7 +3363,7 @@
         <v>99</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C47" s="3"/>
     </row>
@@ -3385,27 +3385,27 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="C52" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="53" ht="30" spans="1:3">
@@ -3413,10 +3413,10 @@
         <v>1</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="54" ht="30" spans="1:3">
@@ -3424,10 +3424,10 @@
         <v>2</v>
       </c>
       <c r="B54" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>184</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="55" ht="30" spans="1:3">
@@ -3435,10 +3435,10 @@
         <v>3</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="56" spans="2:3">
@@ -3481,7 +3481,7 @@
         <v>97</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -3490,7 +3490,7 @@
         <v>99</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -3502,7 +3502,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>33</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3512,7 +3512,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>190</v>
@@ -3521,7 +3521,7 @@
     </row>
     <row r="7" ht="75" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>191</v>
@@ -3530,20 +3530,20 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:3">
